--- a/runs.xlsx
+++ b/runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubham/goal_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073BBE82-22AF-F24D-B4E0-D718A7C2A786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95793F4D-76EC-C144-8295-9845A71590A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{95845E49-6FF9-0F49-A824-055E760A16BF}"/>
+    <workbookView xWindow="12560" yWindow="5240" windowWidth="28040" windowHeight="17440" xr2:uid="{95845E49-6FF9-0F49-A824-055E760A16BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Company</t>
   </si>
@@ -54,6 +54,27 @@
   </si>
   <si>
     <t>No. of goals</t>
+  </si>
+  <si>
+    <t>Diamler</t>
+  </si>
+  <si>
+    <t>Deutsche Bank</t>
+  </si>
+  <si>
+    <t>Continental</t>
+  </si>
+  <si>
+    <t>Brenntag</t>
+  </si>
+  <si>
+    <t>Biersdorf</t>
+  </si>
+  <si>
+    <t>DPDHL</t>
+  </si>
+  <si>
+    <t>Siemens</t>
   </si>
 </sst>
 </file>
@@ -89,10 +110,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,28 +432,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5A1EDD-DB7D-DF41-A32F-8477453248E6}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="86" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -437,37 +466,628 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2017</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2062</v>
+      </c>
+      <c r="D2" s="2">
+        <v>490</v>
+      </c>
+      <c r="E2" s="2">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2018</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2722</v>
+      </c>
+      <c r="D3" s="2">
+        <v>525</v>
+      </c>
+      <c r="E3" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2019</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3519</v>
+      </c>
+      <c r="D4" s="2">
+        <v>455</v>
+      </c>
+      <c r="E4" s="2">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2020</v>
       </c>
+      <c r="C5" s="2">
+        <v>1151</v>
+      </c>
+      <c r="D5" s="2">
+        <v>242</v>
+      </c>
+      <c r="E5" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2970</v>
+      </c>
+      <c r="D6" s="2">
+        <v>90</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4144</v>
+      </c>
+      <c r="D7" s="2">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4553</v>
+      </c>
+      <c r="D8" s="2">
+        <v>105</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1865</v>
+      </c>
+      <c r="D9" s="2">
+        <v>102</v>
+      </c>
+      <c r="E9" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2116</v>
+      </c>
+      <c r="D10" s="2">
+        <v>98</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1104</v>
+      </c>
+      <c r="D11" s="2">
+        <v>176</v>
+      </c>
+      <c r="E11" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1164</v>
+      </c>
+      <c r="D12" s="2">
+        <v>166</v>
+      </c>
+      <c r="E12" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2339</v>
+      </c>
+      <c r="D13" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2092</v>
+      </c>
+      <c r="D14" s="2">
+        <v>307</v>
+      </c>
+      <c r="E14" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C15" s="2">
+        <v>862</v>
+      </c>
+      <c r="D15" s="2">
+        <v>139</v>
+      </c>
+      <c r="E15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1160</v>
+      </c>
+      <c r="D16" s="2">
+        <v>189</v>
+      </c>
+      <c r="E16" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1483</v>
+      </c>
+      <c r="D17" s="2">
+        <v>155</v>
+      </c>
+      <c r="E17" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1423</v>
+      </c>
+      <c r="D18" s="2">
+        <v>218</v>
+      </c>
+      <c r="E18" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1525</v>
+      </c>
+      <c r="D19" s="2">
+        <v>205</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1798</v>
+      </c>
+      <c r="D20" s="2">
+        <v>244</v>
+      </c>
+      <c r="E20" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2">
         <v>2021</v>
       </c>
+      <c r="C21" s="2">
+        <v>2253</v>
+      </c>
+      <c r="D21" s="2">
+        <v>209</v>
+      </c>
+      <c r="E21" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2259</v>
+      </c>
+      <c r="D22" s="2">
+        <v>458</v>
+      </c>
+      <c r="E22" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2817</v>
+      </c>
+      <c r="D23" s="2">
+        <v>512</v>
+      </c>
+      <c r="E23" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3061</v>
+      </c>
+      <c r="D24" s="2">
+        <v>315</v>
+      </c>
+      <c r="E24" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C25" s="2">
+        <v>994</v>
+      </c>
+      <c r="D25" s="2">
+        <v>34</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C26" s="2">
+        <v>480</v>
+      </c>
+      <c r="D26" s="2">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1965</v>
+      </c>
+      <c r="D27" s="2">
+        <v>269</v>
+      </c>
+      <c r="E27" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1835</v>
+      </c>
+      <c r="D28" s="2">
+        <v>219</v>
+      </c>
+      <c r="E28" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2874</v>
+      </c>
+      <c r="D29" s="2">
+        <v>346</v>
+      </c>
+      <c r="E29" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2530</v>
+      </c>
+      <c r="D30" s="2">
+        <v>511</v>
+      </c>
+      <c r="E30" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2461</v>
+      </c>
+      <c r="D31" s="2">
+        <v>451</v>
+      </c>
+      <c r="E31" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2550</v>
+      </c>
+      <c r="D32" s="2">
+        <v>465</v>
+      </c>
+      <c r="E32" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2207</v>
+      </c>
+      <c r="D33" s="2">
+        <v>389</v>
+      </c>
+      <c r="E33" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2442</v>
+      </c>
+      <c r="D34" s="2">
+        <v>334</v>
+      </c>
+      <c r="E34" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2363</v>
+      </c>
+      <c r="D35" s="2">
+        <v>288</v>
+      </c>
+      <c r="E35" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D36" s="2">
+        <v>66</v>
+      </c>
+      <c r="E36" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1291</v>
+      </c>
+      <c r="D37" s="2">
+        <v>138</v>
+      </c>
+      <c r="E37" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1619</v>
+      </c>
+      <c r="D38" s="2">
+        <v>326</v>
+      </c>
+      <c r="E38" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1582</v>
+      </c>
+      <c r="D39" s="2">
+        <v>352</v>
+      </c>
+      <c r="E39" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1755</v>
+      </c>
+      <c r="D40" s="2">
+        <v>374</v>
+      </c>
+      <c r="E40" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2846</v>
+      </c>
+      <c r="D41" s="2">
+        <v>72</v>
+      </c>
+      <c r="E41" s="2">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+  <mergeCells count="8">
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
